--- a/HW1/HW1.xlsx
+++ b/HW1/HW1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rchaks/Code/GitHub/unsupervised-learning/HW1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396675B1-C2AD-B14D-AD0C-95A051D9D611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6961F3FD-1177-3947-A5B6-6A29B7BE6874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18700" activeTab="2" xr2:uid="{A4D84ABA-017F-E046-87F2-F55F4CAFC721}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18700" activeTab="7" xr2:uid="{A4D84ABA-017F-E046-87F2-F55F4CAFC721}"/>
   </bookViews>
   <sheets>
     <sheet name="Q2" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="121">
   <si>
     <t>Eigenvectors</t>
   </si>
@@ -268,9 +268,6 @@
   </si>
   <si>
     <t>Regressing Salary against Prin1, Prin2, Prin3</t>
-  </si>
-  <si>
-    <t>Salary = ß1*Prin1 + ß2*Prin2 + ß3*Prin3</t>
   </si>
   <si>
     <t>Intercept</t>
@@ -699,28 +696,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1204,64 +1201,64 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
+      <c r="A11" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
+      <c r="A17" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
       <c r="E17" s="31"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -1278,13 +1275,13 @@
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -1327,11 +1324,11 @@
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
-      <c r="I22" s="49" t="s">
+      <c r="I22" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B23" s="5">
@@ -1380,13 +1377,13 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
       <c r="I25" s="11">
@@ -1454,14 +1451,14 @@
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="51" t="s">
+      <c r="B30" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="51"/>
+      <c r="C30" s="46"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B32" s="47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C32" s="47"/>
       <c r="D32" s="47"/>
@@ -1472,7 +1469,7 @@
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" s="47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C33" s="47"/>
       <c r="D33" s="47"/>
@@ -1495,14 +1492,14 @@
         <v>14</v>
       </c>
       <c r="E34" s="37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F34" s="38">
         <f>SUMSQ(C6:C8)</f>
         <v>1.000000489339</v>
       </c>
       <c r="G34" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.2">
@@ -1517,14 +1514,14 @@
         <v>15</v>
       </c>
       <c r="E35" s="40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F35" s="41">
         <f>SUMSQ(D6:D8)</f>
         <v>0.99999951260599995</v>
       </c>
       <c r="G35" s="42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.2">
@@ -1539,25 +1536,25 @@
         <v>15</v>
       </c>
       <c r="E36" s="43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F36" s="44">
         <f>SUMSQ(E6:E8)</f>
         <v>1.0000005661009999</v>
       </c>
       <c r="G36" s="21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B37" s="48" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B37" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B39" s="1"/>
@@ -1611,11 +1608,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="C15:H15"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="B32:H32"/>
@@ -1623,6 +1615,11 @@
     <mergeCell ref="B25:F25"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="C13:H13"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="C15:H15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1712,7 +1709,7 @@
     </row>
     <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B10" s="54"/>
       <c r="C10" s="54"/>
@@ -1837,7 +1834,7 @@
         <v>21</v>
       </c>
       <c r="J18" s="35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1903,28 +1900,28 @@
       <c r="K20" s="11"/>
     </row>
     <row r="22" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
+      <c r="A22" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
       <c r="L23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B24" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
+      <c r="B24" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B25" s="10" t="s">
@@ -1940,7 +1937,7 @@
         <v>24</v>
       </c>
       <c r="J25" s="55" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K25" s="55"/>
       <c r="L25" s="55"/>
@@ -1994,11 +1991,11 @@
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B29" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
+      <c r="B29" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="H29" s="5"/>
@@ -2019,7 +2016,7 @@
         <v>24</v>
       </c>
       <c r="J30" s="55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K30" s="55"/>
       <c r="L30" s="55"/>
@@ -2105,7 +2102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F9E695-4737-B646-891F-01B9672FCD2C}">
   <dimension ref="A2:R151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L11" sqref="L11:N11"/>
     </sheetView>
   </sheetViews>
@@ -2113,7 +2110,7 @@
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E2" s="57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F2" s="57"/>
       <c r="G2" s="57"/>
@@ -2127,7 +2124,7 @@
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
       <c r="E3" s="57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F3" s="57"/>
       <c r="G3" s="57"/>
@@ -2225,25 +2222,25 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="G11" s="49" t="s">
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="G11" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
       <c r="K11" s="12"/>
-      <c r="L11" s="49" t="s">
+      <c r="L11" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
@@ -2281,7 +2278,7 @@
         <v>21</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -5187,7 +5184,7 @@
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P83" s="56" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q83" s="56"/>
     </row>
@@ -5497,38 +5494,38 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
@@ -5786,13 +5783,13 @@
       <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
@@ -5834,14 +5831,14 @@
       <c r="I12" s="13"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
@@ -6122,18 +6119,18 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="F10" s="51" t="s">
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="F10" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
@@ -6378,11 +6375,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
     </row>
@@ -6541,20 +6538,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602AF2DC-8288-CC47-838C-A32B50FF8DA4}">
   <dimension ref="A3:L20"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
@@ -6571,7 +6568,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="61" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="B5" s="61"/>
       <c r="C5" s="61"/>
@@ -6592,14 +6589,14 @@
       <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
@@ -6625,13 +6622,13 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J8" s="2">
         <v>2082.0916499999998</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L8" s="14">
         <v>0.90029999999999999</v>
@@ -6651,13 +6648,13 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J9" s="2">
         <v>63929</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L9" s="2">
         <v>0.89549999999999996</v>
@@ -6665,7 +6662,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
@@ -6685,7 +6682,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J10" s="2">
         <v>3.2568600000000001</v>
@@ -6770,7 +6767,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15" s="58"/>
       <c r="C15" s="58"/>
@@ -6792,7 +6789,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" s="68"/>
       <c r="C17" s="68"/>
@@ -6814,7 +6811,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B20" s="55"/>
       <c r="C20" s="55"/>
@@ -6855,7 +6852,7 @@
   <sheetData>
     <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -6870,13 +6867,13 @@
       <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
@@ -6898,13 +6895,13 @@
       <c r="L5" s="13"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
+      <c r="B6" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
@@ -6926,14 +6923,14 @@
       <c r="L7" s="13"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
@@ -6961,13 +6958,13 @@
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J9" s="2">
         <v>2082.0916499999998</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L9" s="2">
         <v>0.90029999999999999</v>
@@ -6986,13 +6983,13 @@
       <c r="G10" s="59"/>
       <c r="H10" s="13"/>
       <c r="I10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J10" s="2">
         <v>63929</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L10" s="2">
         <v>0.89549999999999996</v>
@@ -7000,7 +6997,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -7019,7 +7016,7 @@
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J11" s="2">
         <v>3.2568600000000001</v>
@@ -7104,7 +7101,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" s="71" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" s="71"/>
       <c r="D16" s="71"/>
@@ -7117,7 +7114,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B17" s="71" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" s="71"/>
       <c r="D17" s="71"/>
@@ -7130,7 +7127,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B18" s="71" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" s="71"/>
       <c r="D18" s="71"/>
@@ -7143,7 +7140,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B19" s="71" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" s="71"/>
       <c r="D19" s="71"/>
@@ -7156,7 +7153,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B20" s="71" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20" s="71"/>
       <c r="D20" s="71"/>
@@ -7169,7 +7166,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B22" s="53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C22" s="53"/>
       <c r="D22" s="53"/>
@@ -7179,7 +7176,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B23" s="53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C23" s="53"/>
       <c r="D23" s="53"/>
@@ -7189,7 +7186,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B24" s="53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C24" s="53"/>
       <c r="D24" s="53"/>
@@ -7199,12 +7196,12 @@
     </row>
     <row r="27" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B29" s="55" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C29" s="55"/>
       <c r="D29" s="55"/>
@@ -7214,17 +7211,17 @@
     </row>
     <row r="32" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B34" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
+      <c r="B34" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
@@ -7246,13 +7243,13 @@
       <c r="L35" s="13"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B36" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
+      <c r="B36" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
@@ -7274,14 +7271,14 @@
       <c r="L37" s="13"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B38" s="51" t="s">
+      <c r="B38" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
       <c r="J38" s="13"/>
@@ -7309,13 +7306,13 @@
       </c>
       <c r="H39" s="13"/>
       <c r="I39" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J39" s="2">
         <v>2182.2611400000001</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L39" s="2">
         <v>0.88700000000000001</v>
@@ -7334,13 +7331,13 @@
       <c r="G40" s="59"/>
       <c r="H40" s="13"/>
       <c r="I40" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J40" s="2">
         <v>63929</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L40" s="2">
         <v>0.88519999999999999</v>
@@ -7348,7 +7345,7 @@
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -7367,7 +7364,7 @@
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J41" s="2">
         <v>3.4135499999999999</v>
@@ -7423,7 +7420,7 @@
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B45" s="69" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C45" s="69"/>
       <c r="D45" s="69"/>
@@ -7432,7 +7429,7 @@
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B46" s="70" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C46" s="70"/>
       <c r="D46" s="70"/>
@@ -7441,15 +7438,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
     <mergeCell ref="B45:F45"/>
     <mergeCell ref="B46:F46"/>
     <mergeCell ref="B16:J16"/>
@@ -7466,6 +7454,15 @@
     <mergeCell ref="F39:F40"/>
     <mergeCell ref="G39:G40"/>
     <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/HW1/HW1.xlsx
+++ b/HW1/HW1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rchaks/Code/GitHub/unsupervised-learning/HW1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6961F3FD-1177-3947-A5B6-6A29B7BE6874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334E1579-91EC-5E4C-A7C9-F47D2CEAA4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18700" activeTab="7" xr2:uid="{A4D84ABA-017F-E046-87F2-F55F4CAFC721}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="8" xr2:uid="{A4D84ABA-017F-E046-87F2-F55F4CAFC721}"/>
   </bookViews>
   <sheets>
     <sheet name="Q2" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="124">
   <si>
     <t>Eigenvectors</t>
   </si>
@@ -228,9 +228,6 @@
     <t>This implies that for a candidate to shave a high Prin1 score, he must excell in all these areas.</t>
   </si>
   <si>
-    <t>Thus, Prin1 can be interpreted as : Overall Rating</t>
-  </si>
-  <si>
     <t>-  The significance values of all three components , when regressed against Prin2 and Prin3 are statistically insignificant.</t>
   </si>
   <si>
@@ -406,6 +403,18 @@
   </si>
   <si>
     <t>Hence Verified</t>
+  </si>
+  <si>
+    <t>These values are the same as the coresponping PC's eigen-values</t>
+  </si>
+  <si>
+    <t>- Prin2 exhibits some loading on Accountability and, has a negative correlation with knowhow. This could probably indicate roles where responsibility and the ability to lead is more crucial.</t>
+  </si>
+  <si>
+    <t>- Thus, Prin2 could be Senior Managers</t>
+  </si>
+  <si>
+    <t>Thus, Prin1 can be interpreted as Subject Matter Experts</t>
   </si>
 </sst>
 </file>
@@ -642,7 +651,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -696,28 +705,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -762,10 +772,15 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1132,7 +1147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D135D2DA-1EF8-6F44-9653-27774D029007}">
   <dimension ref="A4:O47"/>
   <sheetViews>
-    <sheetView zoomScale="92" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="171" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
@@ -1201,64 +1216,64 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
+      <c r="A11" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
+      <c r="A17" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
       <c r="E17" s="31"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -1275,13 +1290,13 @@
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -1324,11 +1339,11 @@
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
-      <c r="I22" s="45" t="s">
+      <c r="I22" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B23" s="5">
@@ -1377,13 +1392,13 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
       <c r="I25" s="11">
@@ -1451,30 +1466,30 @@
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="46"/>
+      <c r="C30" s="52"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B33" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B33" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
@@ -1492,14 +1507,14 @@
         <v>14</v>
       </c>
       <c r="E34" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F34" s="38">
         <f>SUMSQ(C6:C8)</f>
         <v>1.000000489339</v>
       </c>
       <c r="G34" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.2">
@@ -1514,14 +1529,14 @@
         <v>15</v>
       </c>
       <c r="E35" s="40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F35" s="41">
         <f>SUMSQ(D6:D8)</f>
         <v>0.99999951260599995</v>
       </c>
       <c r="G35" s="42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.2">
@@ -1536,25 +1551,25 @@
         <v>15</v>
       </c>
       <c r="E36" s="43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F36" s="44">
         <f>SUMSQ(E6:E8)</f>
         <v>1.0000005661009999</v>
       </c>
       <c r="G36" s="21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B37" s="53" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B37" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B39" s="1"/>
@@ -1608,6 +1623,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="C15:H15"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="B32:H32"/>
@@ -1615,11 +1635,6 @@
     <mergeCell ref="B25:F25"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="C13:H13"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="C15:H15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1629,8 +1644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0AFB337-EE6A-9046-9081-FE89D6EF34DD}">
   <dimension ref="A4:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34:K35"/>
+    <sheetView topLeftCell="A7" zoomScale="142" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1708,12 +1723,12 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
+      <c r="A10" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
     </row>
     <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="33"/>
@@ -1834,7 +1849,7 @@
         <v>21</v>
       </c>
       <c r="J18" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1900,28 +1915,28 @@
       <c r="K20" s="11"/>
     </row>
     <row r="22" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
+      <c r="A22" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
       <c r="L23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B24" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
+      <c r="B24" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B25" s="10" t="s">
@@ -1936,11 +1951,11 @@
       <c r="H25" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="J25" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
+      <c r="J25" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B26" s="11">
@@ -1958,12 +1973,12 @@
         <v>9.1791067500183967</v>
       </c>
       <c r="I26" s="5"/>
-      <c r="J26" s="55">
+      <c r="J26" s="56">
         <f>ACOS(SUMPRODUCT(B26:D26,B27:D27)/(H26*H27))</f>
         <v>0.16140547156787455</v>
       </c>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B27" s="11">
@@ -1991,11 +2006,11 @@
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B29" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
+      <c r="B29" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="H29" s="5"/>
@@ -2015,11 +2030,11 @@
       <c r="H30" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="J30" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55"/>
+      <c r="J30" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B31" s="11">
@@ -2035,12 +2050,12 @@
         <f>SQRT(SUMSQ(B31:D31))</f>
         <v>9.1791067499917283</v>
       </c>
-      <c r="J31" s="55">
+      <c r="J31" s="56">
         <f>ACOS(SUMPRODUCT(B31:D31,B32:D32)/(H31*H32))</f>
         <v>0.16140547159282437</v>
       </c>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B32" s="11">
@@ -2058,28 +2073,28 @@
       </c>
     </row>
     <row r="34" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D34" s="53" t="s">
+      <c r="D34" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="54"/>
+    </row>
+    <row r="35" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D35" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-    </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D35" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="53"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2102,35 +2117,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F9E695-4737-B646-891F-01B9672FCD2C}">
   <dimension ref="A2:R151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G9" zoomScale="180" workbookViewId="0">
       <selection activeCell="L11" sqref="L11:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="E2" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
+      <c r="E2" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
-      <c r="E3" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
+      <c r="E3" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -2222,25 +2237,25 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="G11" s="45" t="s">
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="G11" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
       <c r="K11" s="12"/>
-      <c r="L11" s="45" t="s">
+      <c r="L11" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
@@ -2278,7 +2293,7 @@
         <v>21</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -5177,16 +5192,16 @@
       <c r="O82" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="P82" s="56" t="s">
+      <c r="P82" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="Q82" s="56"/>
+      <c r="Q82" s="57"/>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="P83" s="56" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q83" s="56"/>
+      <c r="P83" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q83" s="57"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G86" s="7"/>
@@ -5494,44 +5509,44 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="60" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -5540,24 +5555,24 @@
       <c r="D13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="59" t="s">
+      <c r="E13" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="59" t="s">
+      <c r="F13" s="60" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="59"/>
-      <c r="B14" s="59"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="60"/>
       <c r="C14" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -5620,29 +5635,29 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5664,7 +5679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F78E101-45B9-D340-BBE0-895C8342924C}">
   <dimension ref="A3:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="157" workbookViewId="0">
+    <sheetView zoomScale="157" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -5783,13 +5798,13 @@
       <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
@@ -5807,13 +5822,13 @@
       <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
@@ -5831,23 +5846,23 @@
       <c r="I12" s="13"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="60" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -5856,10 +5871,10 @@
       <c r="D14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="59" t="s">
+      <c r="E14" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="59" t="s">
+      <c r="F14" s="60" t="s">
         <v>42</v>
       </c>
       <c r="G14" s="13"/>
@@ -5867,16 +5882,16 @@
       <c r="I14" s="13"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="59"/>
-      <c r="B15" s="59"/>
+      <c r="A15" s="60"/>
+      <c r="B15" s="60"/>
       <c r="C15" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
@@ -5962,13 +5977,13 @@
       <c r="I19" s="13"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
       <c r="G20" s="30"/>
       <c r="H20" s="30"/>
       <c r="I20" s="30"/>
@@ -5985,16 +6000,16 @@
       <c r="I21" s="13"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
       <c r="I22" s="13"/>
     </row>
   </sheetData>
@@ -6015,10 +6030,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C845B241-83D0-E447-8338-F31F534CA953}">
-  <dimension ref="A3:I27"/>
+  <dimension ref="A3:I29"/>
   <sheetViews>
     <sheetView zoomScale="140" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6119,18 +6134,18 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="F10" s="46" t="s">
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="F10" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
@@ -6235,20 +6250,27 @@
       <c r="A15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="45">
         <f>SUMSQ(B12:B14)</f>
         <v>2.9080878985999998</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="45">
         <f t="shared" ref="C15:D15" si="0">SUMSQ(C12:C14)</f>
         <v>8.3697318699999995E-2</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="45">
         <f t="shared" si="0"/>
         <v>8.2206917000000011E-3</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
       <c r="H16" s="26"/>
       <c r="I16" t="s">
         <v>55</v>
@@ -6273,87 +6295,114 @@
       <c r="H19" s="23"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="62" t="s">
+      <c r="A20" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="56" t="s">
+      <c r="A22" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="72"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="62" t="s">
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
     <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:H27"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A23:H24"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A22:H22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6375,11 +6424,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
+      <c r="A2" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
     </row>
@@ -6463,59 +6512,59 @@
       <c r="F7" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="65"/>
-      <c r="E9" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="64"/>
-      <c r="G9" s="65"/>
-      <c r="I9" s="63" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="64"/>
-      <c r="K9" s="65"/>
+      <c r="A9" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="65"/>
+      <c r="C9" s="66"/>
+      <c r="E9" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="65"/>
+      <c r="G9" s="66"/>
+      <c r="I9" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="65"/>
+      <c r="K9" s="66"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="18"/>
       <c r="B10" s="19"/>
       <c r="C10" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="18"/>
       <c r="F10" s="19"/>
       <c r="G10" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I10" s="18"/>
       <c r="J10" s="19"/>
       <c r="K10" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="67"/>
+      <c r="A11" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="68"/>
       <c r="C11" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="66" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="67"/>
+      <c r="E11" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="68"/>
       <c r="G11" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I11" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="J11" s="67"/>
+      <c r="I11" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="68"/>
       <c r="K11" s="21" t="s">
         <v>1</v>
       </c>
@@ -6538,20 +6587,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602AF2DC-8288-CC47-838C-A32B50FF8DA4}">
   <dimension ref="A3:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:E5"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
+      <c r="A3" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
@@ -6567,13 +6616,13 @@
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
+      <c r="A5" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
@@ -6589,22 +6638,22 @@
       <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="60" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -6613,48 +6662,48 @@
       <c r="D8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="60" t="s">
         <v>42</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J8" s="2">
         <v>2082.0916499999998</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L8" s="14">
         <v>0.90029999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="59"/>
-      <c r="B9" s="59"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J9" s="2">
         <v>63929</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L9" s="2">
         <v>0.89549999999999996</v>
@@ -6662,7 +6711,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
@@ -6682,7 +6731,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J10" s="2">
         <v>3.2568600000000001</v>
@@ -6766,15 +6815,15 @@
       <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
+      <c r="A15" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
       <c r="H15" s="30"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -6788,37 +6837,37 @@
       <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="69"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="68"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -6841,8 +6890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F3E406-E94A-C141-8821-15DC841EA1A4}">
   <dimension ref="A2:L46"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45:F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6852,7 +6901,7 @@
   <sheetData>
     <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -6867,13 +6916,13 @@
       <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
+      <c r="B4" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
@@ -6895,13 +6944,13 @@
       <c r="L5" s="13"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="B6" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
@@ -6923,14 +6972,14 @@
       <c r="L7" s="13"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
@@ -6938,10 +6987,10 @@
       <c r="L8" s="13"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="60" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -6950,46 +6999,46 @@
       <c r="E9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="59" t="s">
+      <c r="G9" s="60" t="s">
         <v>42</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J9" s="2">
         <v>2082.0916499999998</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L9" s="2">
         <v>0.90029999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
       <c r="H10" s="13"/>
       <c r="I10" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J10" s="2">
         <v>63929</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L10" s="2">
         <v>0.89549999999999996</v>
@@ -6997,7 +7046,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -7016,7 +7065,7 @@
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J11" s="2">
         <v>3.2568600000000001</v>
@@ -7101,7 +7150,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" s="71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" s="71"/>
       <c r="D16" s="71"/>
@@ -7114,7 +7163,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B17" s="71" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" s="71"/>
       <c r="D17" s="71"/>
@@ -7127,7 +7176,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B18" s="71" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C18" s="71"/>
       <c r="D18" s="71"/>
@@ -7140,7 +7189,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B19" s="71" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19" s="71"/>
       <c r="D19" s="71"/>
@@ -7153,7 +7202,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B20" s="71" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C20" s="71"/>
       <c r="D20" s="71"/>
@@ -7165,63 +7214,63 @@
       <c r="J20" s="71"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="32"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="32"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="53" t="s">
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="32"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B24" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="32"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
       <c r="G24" s="32"/>
     </row>
     <row r="27" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="57" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
     </row>
     <row r="32" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B34" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
+      <c r="B34" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
@@ -7243,13 +7292,13 @@
       <c r="L35" s="13"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B36" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
+      <c r="B36" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
@@ -7271,14 +7320,14 @@
       <c r="L37" s="13"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B38" s="46" t="s">
+      <c r="B38" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
       <c r="J38" s="13"/>
@@ -7286,10 +7335,10 @@
       <c r="L38" s="13"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B39" s="59" t="s">
+      <c r="B39" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="59" t="s">
+      <c r="C39" s="60" t="s">
         <v>36</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -7298,46 +7347,46 @@
       <c r="E39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F39" s="59" t="s">
+      <c r="F39" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="G39" s="59" t="s">
+      <c r="G39" s="60" t="s">
         <v>42</v>
       </c>
       <c r="H39" s="13"/>
       <c r="I39" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J39" s="2">
         <v>2182.2611400000001</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L39" s="2">
         <v>0.88700000000000001</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
       <c r="D40" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
       <c r="H40" s="13"/>
       <c r="I40" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J40" s="2">
         <v>63929</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L40" s="2">
         <v>0.88519999999999999</v>
@@ -7345,7 +7394,7 @@
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -7364,7 +7413,7 @@
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J41" s="2">
         <v>3.4135499999999999</v>
@@ -7419,17 +7468,17 @@
       <c r="L44" s="13"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B45" s="69" t="s">
-        <v>99</v>
-      </c>
-      <c r="C45" s="69"/>
-      <c r="D45" s="69"/>
-      <c r="E45" s="69"/>
-      <c r="F45" s="69"/>
+      <c r="B45" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="70"/>
+      <c r="D45" s="70"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="70"/>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B46" s="70" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C46" s="70"/>
       <c r="D46" s="70"/>
@@ -7438,6 +7487,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
     <mergeCell ref="B45:F45"/>
     <mergeCell ref="B46:F46"/>
     <mergeCell ref="B16:J16"/>
@@ -7454,15 +7512,6 @@
     <mergeCell ref="F39:F40"/>
     <mergeCell ref="G39:G40"/>
     <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
